--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A046B-F45A-164B-861B-B3CD990BCEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A2825-75F9-704F-9427-9DE2599CF26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Validation script</t>
   </si>
   <si>
-    <t>Generated Code Prefix</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Vocabulary Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>SAMPLE:DEPARTMENT</t>
+  </si>
+  <si>
+    <t>Vocabulary code</t>
+  </si>
+  <si>
+    <t>Generated code prefix</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
@@ -663,31 +663,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -704,17 +704,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -733,17 +733,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6"/>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
@@ -814,31 +814,31 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
@@ -855,17 +855,17 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H12"/>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>1</v>
@@ -884,17 +884,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13"/>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="b">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1004,31 +1004,31 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1036,26 +1036,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1065,26 +1065,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1094,26 +1094,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -1132,17 +1132,17 @@
         <v>1</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="11" t="b">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
